--- a/biology/Zoologie/Gazella/Gazella.xlsx
+++ b/biology/Zoologie/Gazella/Gazella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazella est un genre de mammifères, de la famille des bovidés, de la sous-famille des antilopinés, vivant dans les steppes d'Afrique et d'Asie.
 Toutes les espèces de ce genre sont appelées « gazelle », mais d'autres espèces en dehors de ce genre portent également ce nom (voir Gazelle).
-Les espèces de ce genre sont des petites antilopes élancées, agiles et très rapides à la course. Certaines peuvent atteindre une vitesse de plus de 100 km/h[1],[2] sur une distance de plusieurs centaines de mètres ou courir à une vitesse de 90 km/h[2] sur des plus longues distances allant de 30 à 80 km et ont aussi la faculté d'entrecouper leurs courses de grands bonds. On trouve la plupart de ces gazelles dans les savanes africaines, sud-asiatiques et au Sahara.
+Les espèces de ce genre sont des petites antilopes élancées, agiles et très rapides à la course. Certaines peuvent atteindre une vitesse de plus de 100 km/h, sur une distance de plusieurs centaines de mètres ou courir à une vitesse de 90 km/h sur des plus longues distances allant de 30 à 80 km et ont aussi la faculté d'entrecouper leurs courses de grands bonds. On trouve la plupart de ces gazelles dans les savanes africaines, sud-asiatiques et au Sahara.
 Ce sont des herbivores ruminants ; elles se nourrissent d'herbes, de graminées, de feuilles de buissons… Certaines gazelles peuvent se passer d'eau pendant un long temps.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (12 mars 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (12 mars 2019) :
 Gazella arabica (Lichtenstein, 1827)
 Gazella bennettii (Sykes, 1831)
 Gazella cuvieri (Ogilby, 1841)
@@ -527,7 +541,7 @@
 Gazella saudiya Carruthers &amp; Schwarz, 1935
 Gazella spekei Blyth, 1863
 Gazella subgutturosa (Güldenstaedt, 1780)
-Certaines espèces anciennement dans ce genre ont été déplacées en 2005[4] vers deux autres genres, Eudorcas et Nanger : 
+Certaines espèces anciennement dans ce genre ont été déplacées en 2005 vers deux autres genres, Eudorcas et Nanger : 
 Nanger dama (Pallas, 1766) - Gazelle dama
 Nanger granti (Brooke, 1872) - Gazelle de Grant
 Nanger soemmerringii (Cretzschmar, 1828) - Gazelle de Sömmering
